--- a/results/I3_N5_M2_T30_C200_DepCentral_s2_P6_res.xlsx
+++ b/results/I3_N5_M2_T30_C200_DepCentral_s2_P6_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>67.55436508283528</v>
+        <v>22.71436508284903</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01099991798400879</v>
+        <v>0.001999855041503906</v>
       </c>
     </row>
     <row r="5">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.107608549995971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.107608549995971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>44.83999999998625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,50 +580,6 @@
         <is>
           <t>alpha</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>3</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" t="n">
-        <v>4</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" t="n">
-        <v>5</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -904,7 +860,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>21.29375422704168</v>
+        <v>21.29375422704624</v>
       </c>
     </row>
     <row r="5">
@@ -958,7 +914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -986,62 +942,6 @@
         <is>
           <t>y</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>6</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>6</v>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" t="n">
-        <v>6</v>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" t="n">
-        <v>6</v>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1143,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>207.1549999999986</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8">
@@ -1154,7 +1054,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9">
@@ -1165,7 +1065,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>202.5049999999982</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10">
@@ -1176,7 +1076,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>202.1699999999984</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11">
@@ -1187,7 +1087,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>210.589999999998</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12">
@@ -1198,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>163.5</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13">
@@ -1209,7 +1109,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>159.965</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14">
@@ -1220,7 +1120,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>161.2099999999983</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15">
@@ -1231,7 +1131,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>162.6599999999985</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16">
@@ -1242,7 +1142,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>166.7199999999981</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17">
@@ -1253,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>147.3399999999997</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18">
@@ -1264,7 +1164,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>159.2049999999997</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19">
@@ -1275,7 +1175,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>140.4299999999997</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20">
@@ -1286,7 +1186,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>157.7</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21">
@@ -1297,7 +1197,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>152.9949999999997</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22">
@@ -1308,7 +1208,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>106.1700000000004</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23">
@@ -1319,7 +1219,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>112.4900000000004</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24">
@@ -1330,7 +1230,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>102.5700000000004</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25">
@@ -1341,7 +1241,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>110.05</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26">
@@ -1352,7 +1252,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>107.6750000000004</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27">
@@ -1363,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>52.23499999999817</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28">
@@ -1374,7 +1274,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>44.35</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29">
@@ -1385,7 +1285,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>44.52499999999772</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30">
@@ -1396,7 +1296,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>45.78499999999792</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31">
@@ -1407,7 +1307,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>50.8</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32">
@@ -1418,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>207.1549999999986</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33">
@@ -1429,7 +1329,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="34">
@@ -1440,7 +1340,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>202.5049999999982</v>
+        <v>185</v>
       </c>
     </row>
     <row r="35">
@@ -1451,7 +1351,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>202.1699999999984</v>
+        <v>193</v>
       </c>
     </row>
     <row r="36">
@@ -1462,7 +1362,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>210.589999999998</v>
+        <v>188</v>
       </c>
     </row>
     <row r="37">
@@ -1473,7 +1373,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>147.3399999999997</v>
+        <v>134</v>
       </c>
     </row>
     <row r="38">
@@ -1484,7 +1384,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>159.2049999999997</v>
+        <v>142</v>
       </c>
     </row>
     <row r="39">
@@ -1495,7 +1395,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>140.4299999999997</v>
+        <v>136</v>
       </c>
     </row>
     <row r="40">
@@ -1506,7 +1406,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>157.7</v>
+        <v>138</v>
       </c>
     </row>
     <row r="41">
@@ -1517,7 +1417,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>152.9949999999997</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -1564,7 +1464,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>7.154999999998617</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1586,7 +1486,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>2.504999999998181</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1597,7 +1497,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>2.169999999998363</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1608,7 +1508,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>10.58999999999796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1988,7 +1888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2013,50 +1913,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>3</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" t="n">
-        <v>4</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" t="n">
-        <v>5</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
